--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_NacuboSourceProfile_DetailsPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC68C99-5B95-46AF-B619-4E7AA1DD7F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4774DC79-8B47-45EB-8693-03BFE91161B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Keyword</t>
   </si>
@@ -82,30 +82,15 @@
     <t>getData=SetStatus</t>
   </si>
   <si>
-    <t>link_nacuboSourceProfile_wait_nacubo</t>
-  </si>
-  <si>
     <t>txt_nacuboSource_nacubo</t>
   </si>
   <si>
-    <t>txt_title_nacubo</t>
-  </si>
-  <si>
     <t>dropdown_approYear_nacubo</t>
   </si>
   <si>
-    <t>txt_endDate_nacubo</t>
-  </si>
-  <si>
-    <t>button_setStatus_nacubo</t>
-  </si>
-  <si>
     <t>dropdown_nacuboCat_nacubo</t>
   </si>
   <si>
-    <t>button_saveDetails_nacubo</t>
-  </si>
-  <si>
     <t>radioButton_function_nacubo</t>
   </si>
   <si>
@@ -155,6 +140,21 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>link_nacuboSourceProfile_wait</t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>txt_endDate</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>button_saveDetails</t>
   </si>
 </sst>
 </file>
@@ -591,13 +591,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -643,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -654,13 +654,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -668,13 +668,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -682,13 +682,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -696,13 +696,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -713,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -724,42 +724,33 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -775,43 +766,44 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -819,23 +811,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6">
         <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6">
         <v>2024</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I2" s="6"/>
     </row>
